--- a/data/newdata.xlsx
+++ b/data/newdata.xlsx
@@ -1,28 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Works\work_file\翻訳プルーフ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danu/Dev/re/Cross-lingual-translation-quality-evaluation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F676C39C-F066-4BC1-87AB-1A3B6CB79CF9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222CA002-AD4E-E340-B37F-420490704CD6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="25875" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1400" windowWidth="24460" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Chart1" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$2:$C$82</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$D$2:$D$82</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$2:$D$82</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$2:$C$82</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$2:$D$82</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$2:$C$82</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t>英語/English</t>
     <rPh sb="0" eb="2">
@@ -43,208 +58,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>`@ニコンソフトウェアViewNX-iとCapture NX-Dについて</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-ViewNX-iはカメラで撮影した画像の転送や閲覧・調整が、Capture NX-Dは画像の調整やRAW現像ができるニコンのソフトウェアです。下記のホームページでソフトウェアの最新情報や動作環境をご確認の上、ダウンロードしてください。
-http://downloadcenter.nikonimglib.com/</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>`@ ViewNX-i and Capture NX-D Software</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Use ViewNX-i to fine-tune photos or to copy pictures to a computer for viewing. ViewNX-i is available for download from the following website:
-http://downloadcenter.nikonimglib.com/
-Use Capture NX-D to fine-tune pictures that have been copied to a computer and to convert NEF (RAW) images to other formats.
-Capture NX-D is available for download from:
-http://downloadcenter.nikonimglib.com/
-You can also visit this website for the latest information on Nikon software, including system requirements.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@ LCD Illuminators</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Rotating the power switch toward @ activates the backlights for the buttons and control panels,
-making it easier to use the camera in the dark. After the power switch is released, the backlights will remain lit for a few seconds or until the shutter is released or the power switch is rotated toward @ again.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@表示パネルの照明（イルミネーター）について</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-電源スイッチを</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>マークの方向に回すと、上面表示パネルや背面表示パネル、ボタンのイルミネーター（照明）が点灯し、電源スイッチを放すと、数秒間点灯し続けます。ただし、シャッターをきるか、もう一度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>マークの方向に回すと消灯し</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ます。
-• ボタン照明が点灯すると、暗い場所で操作しやすくなります。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@ タッチパネルについてのご注意</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-• このカメラのタッチパネルは静電式です。爪でタッチしたり、手袋などをはめたままタッチしたりすると反応しないことがあります。
-• 先のとがった硬い物で押さないでください。
-• タッチパネルを必要以上に強く押したり、こすったりしないでください。
-• 市販の保護フィルムを貼ると反応しないことがあります。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -255,7 +69,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -271,7 +85,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -282,7 +96,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -304,7 +118,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -315,7 +129,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -331,7 +145,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -342,7 +156,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -358,7 +172,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -369,7 +183,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -386,7 +200,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -397,7 +211,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -410,7 +224,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -421,7 +235,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -437,7 +251,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -448,7 +262,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -461,7 +275,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -472,7 +286,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -488,7 +302,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -499,7 +313,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -519,7 +333,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -530,7 +344,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -548,7 +362,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -559,7 +373,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -571,11 +385,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1 Press the shutter-release button halfway.
-At default settings, the camera will focus on the subject in the center focus point. Frame a photo in the viewfinder with the main subject positioned in the center focus point and press the shutter-release button halfway.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>• ミラーアップしてライブビューを開始します。ファインダー内が暗くなり、画像モニターに被写体が表示されます。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -589,7 +398,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -600,7 +409,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -613,7 +422,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -624,7 +433,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -636,7 +445,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -647,7 +456,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -662,7 +471,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -673,7 +482,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -686,7 +495,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -697,7 +506,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -713,7 +522,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -724,7 +533,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -752,7 +561,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -763,7 +572,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -788,7 +597,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -799,7 +608,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -812,7 +621,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -823,7 +632,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -838,7 +647,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -849,7 +658,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -866,7 +675,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -877,7 +686,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -893,7 +702,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -904,7 +713,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -916,7 +725,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -927,7 +736,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -939,7 +748,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -950,7 +759,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -966,7 +775,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -977,7 +786,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -995,7 +804,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1006,7 +815,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1020,7 +829,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1031,7 +840,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1052,7 +861,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1063,7 +872,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1077,7 +886,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1088,7 +897,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1100,7 +909,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1111,7 +920,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1129,7 +938,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1140,7 +949,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1152,7 +961,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1163,7 +972,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1175,7 +984,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1186,7 +995,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1201,7 +1010,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1212,7 +1021,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1226,7 +1035,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1237,7 +1046,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1249,7 +1058,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1260,7 +1069,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1273,7 +1082,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1284,7 +1093,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1296,7 +1105,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1308,7 +1117,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1320,7 +1129,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1331,7 +1140,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1343,7 +1152,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1354,7 +1163,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1366,7 +1175,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1377,7 +1186,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1389,7 +1198,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1400,7 +1209,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1412,7 +1221,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1423,7 +1232,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1438,7 +1247,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1449,7 +1258,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1463,7 +1272,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1474,7 +1283,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1486,7 +1295,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1497,7 +1306,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1511,7 +1320,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1523,7 +1332,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1535,7 +1344,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1546,7 +1355,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1559,7 +1368,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1570,7 +1379,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1588,7 +1397,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1599,7 +1408,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1612,7 +1421,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1623,7 +1432,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1636,7 +1445,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1647,7 +1456,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1660,7 +1469,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1671,7 +1480,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1685,7 +1494,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1697,7 +1506,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1708,7 +1517,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1721,7 +1530,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1732,7 +1541,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1745,7 +1554,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1756,7 +1565,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1769,7 +1578,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1780,7 +1589,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1798,7 +1607,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1809,7 +1618,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1828,7 +1637,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1839,7 +1648,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1854,7 +1663,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1865,7 +1674,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1881,7 +1690,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1892,7 +1701,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1908,7 +1717,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1919,7 +1728,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1938,7 +1747,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1949,7 +1758,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1975,7 +1784,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1986,7 +1795,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2002,7 +1811,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2013,7 +1822,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2031,7 +1840,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2042,7 +1851,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2057,7 +1866,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2068,7 +1877,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2081,7 +1890,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2092,7 +1901,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2104,7 +1913,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2115,7 +1924,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2127,7 +1936,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2138,7 +1947,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2153,7 +1962,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2164,7 +1973,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2177,7 +1986,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2188,7 +1997,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2200,7 +2009,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2211,7 +2020,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2223,7 +2032,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2234,7 +2043,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2246,7 +2055,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2257,7 +2066,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2269,7 +2078,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2280,7 +2089,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2293,7 +2102,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2304,7 +2113,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2317,7 +2126,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2328,7 +2137,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2343,7 +2152,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2354,7 +2163,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2369,7 +2178,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2380,7 +2189,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2392,7 +2201,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2403,7 +2212,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2419,7 +2228,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2430,7 +2239,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2444,7 +2253,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2455,7 +2264,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2467,7 +2276,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2478,7 +2287,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2496,7 +2305,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2507,7 +2316,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2519,7 +2328,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2530,7 +2339,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2542,7 +2351,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2553,7 +2362,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2566,7 +2375,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2577,7 +2386,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2599,7 +2408,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2610,7 +2419,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2622,7 +2431,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2633,7 +2442,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2654,7 +2463,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2665,7 +2474,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2677,7 +2486,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2688,7 +2497,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2712,7 +2521,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2723,7 +2532,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2740,7 +2549,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2751,7 +2560,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2767,7 +2576,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2778,7 +2587,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2792,7 +2601,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2803,7 +2612,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2818,7 +2627,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2829,7 +2638,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2842,7 +2651,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2853,7 +2662,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2881,7 +2690,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2892,7 +2701,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2904,7 +2713,7 @@
       <rPr>
         <sz val="8"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2915,7 +2724,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2934,7 +2743,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2945,7 +2754,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2958,7 +2767,7 @@
       <rPr>
         <sz val="8"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2969,7 +2778,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2995,7 +2804,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3006,7 +2815,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3022,7 +2831,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3033,7 +2842,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3049,7 +2858,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3060,7 +2869,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3076,7 +2885,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3087,7 +2896,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3103,7 +2912,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3114,7 +2923,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3131,7 +2940,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3142,7 +2951,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3160,7 +2969,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3174,7 +2983,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3185,7 +2994,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3198,7 +3007,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3209,7 +3018,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3226,7 +3035,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3242,7 +3051,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3253,7 +3062,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3266,7 +3075,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3277,7 +3086,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3296,7 +3105,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3307,7 +3116,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3323,7 +3132,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3334,7 +3143,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3355,7 +3164,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3366,7 +3175,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3380,7 +3189,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3391,7 +3200,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3407,7 +3216,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3418,7 +3227,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3432,7 +3241,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3443,7 +3252,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3459,7 +3268,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3470,7 +3279,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3483,7 +3292,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3494,7 +3303,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3509,7 +3318,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3520,7 +3329,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3538,7 +3347,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3549,7 +3358,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3565,7 +3374,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3576,7 +3385,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3589,7 +3398,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3600,7 +3409,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3612,7 +3421,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3623,7 +3432,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3638,7 +3447,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3649,7 +3458,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3662,7 +3471,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3673,7 +3482,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3697,7 +3506,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3708,7 +3517,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3730,7 +3539,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3741,7 +3550,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3756,7 +3565,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3767,7 +3576,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3780,7 +3589,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3791,7 +3600,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3803,7 +3612,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3814,7 +3623,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3825,7 +3634,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3836,7 +3645,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3849,7 +3658,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3860,7 +3669,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3872,7 +3681,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3883,7 +3692,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3895,7 +3704,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3906,7 +3715,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3919,7 +3728,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3930,7 +3739,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3942,7 +3751,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3953,7 +3762,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3968,7 +3777,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3979,7 +3788,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3992,7 +3801,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4003,7 +3812,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4015,7 +3824,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4026,7 +3835,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4041,7 +3850,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4052,7 +3861,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4068,7 +3877,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4079,7 +3888,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4095,7 +3904,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4106,7 +3915,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4119,7 +3928,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4130,7 +3939,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4142,7 +3951,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4153,7 +3962,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4165,7 +3974,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4176,7 +3985,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4189,7 +3998,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4200,7 +4009,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4215,7 +4024,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4226,7 +4035,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4239,7 +4048,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4250,7 +4059,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4262,7 +4071,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4273,7 +4082,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4285,7 +4094,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4296,7 +4105,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4325,7 +4134,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4336,7 +4145,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4349,7 +4158,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4360,7 +4169,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4373,7 +4182,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4384,7 +4193,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4399,7 +4208,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4410,7 +4219,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4423,7 +4232,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4434,7 +4243,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4447,7 +4256,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4458,7 +4267,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4477,7 +4286,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4488,7 +4297,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4500,7 +4309,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4511,7 +4320,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4533,7 +4342,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4544,7 +4353,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4556,7 +4365,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4567,7 +4376,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4579,7 +4388,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4590,7 +4399,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4602,7 +4411,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4613,7 +4422,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4625,7 +4434,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4636,7 +4445,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4649,7 +4458,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4660,7 +4469,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4673,7 +4482,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4684,7 +4493,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4696,7 +4505,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4707,7 +4516,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4725,7 +4534,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4736,7 +4545,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4748,7 +4557,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4759,7 +4568,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4771,7 +4580,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4782,7 +4591,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4794,7 +4603,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4805,7 +4614,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4817,7 +4626,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4828,7 +4637,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4840,7 +4649,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4851,7 +4660,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4863,7 +4672,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4874,7 +4683,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4892,7 +4701,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4903,7 +4712,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4915,7 +4724,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4926,7 +4735,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4939,7 +4748,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4950,7 +4759,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4968,7 +4777,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4979,7 +4788,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4991,7 +4800,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5002,7 +4811,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5017,7 +4826,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5028,7 +4837,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5042,7 +4851,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5053,7 +4862,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5071,7 +4880,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5082,7 +4891,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5108,7 +4917,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5119,7 +4928,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5134,7 +4943,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5145,7 +4954,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5157,7 +4966,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5168,7 +4977,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5183,7 +4992,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5194,7 +5003,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5207,7 +5016,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5218,7 +5027,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5230,7 +5039,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5241,7 +5050,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5259,7 +5068,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5270,7 +5079,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5283,7 +5092,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5294,7 +5103,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5306,7 +5115,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5317,7 +5126,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5335,7 +5144,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5346,7 +5155,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5395,7 +5204,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5406,7 +5215,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5418,7 +5227,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5429,7 +5238,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5441,7 +5250,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5452,7 +5261,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5470,7 +5279,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5481,7 +5290,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5493,7 +5302,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5504,7 +5313,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5542,7 +5351,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5553,7 +5362,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5566,7 +5375,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5577,7 +5386,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5589,7 +5398,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5600,7 +5409,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5612,7 +5421,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5623,7 +5432,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5641,7 +5450,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5652,7 +5461,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5664,7 +5473,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5675,7 +5484,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5687,7 +5496,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5698,7 +5507,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5722,7 +5531,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5733,7 +5542,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5746,7 +5555,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5757,7 +5566,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5775,7 +5584,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5786,7 +5595,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5798,7 +5607,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5809,7 +5618,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5822,7 +5631,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5833,7 +5642,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5845,7 +5654,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5856,7 +5665,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5874,7 +5683,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5885,7 +5694,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5897,7 +5706,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5908,7 +5717,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5927,7 +5736,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5938,7 +5747,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5950,7 +5759,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5961,7 +5770,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5979,7 +5788,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5990,7 +5799,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6002,7 +5811,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6013,7 +5822,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6025,7 +5834,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6036,7 +5845,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6048,7 +5857,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6059,7 +5868,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6077,7 +5886,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6088,7 +5897,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6106,7 +5915,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6117,7 +5926,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6139,7 +5948,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6150,7 +5959,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6163,7 +5972,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6174,7 +5983,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6192,7 +6001,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6203,7 +6012,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6215,7 +6024,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6226,7 +6035,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6238,7 +6047,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6249,7 +6058,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6261,7 +6070,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6272,7 +6081,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6290,7 +6099,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6301,7 +6110,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6313,7 +6122,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6324,7 +6133,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6337,7 +6146,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6348,7 +6157,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6366,7 +6175,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6377,7 +6186,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6389,7 +6198,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6400,7 +6209,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6411,7 +6220,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6422,7 +6231,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6434,7 +6243,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6445,7 +6254,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6460,7 +6269,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6471,7 +6280,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6488,7 +6297,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6499,7 +6308,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6534,7 +6343,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6545,7 +6354,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6558,7 +6367,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6569,7 +6378,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6585,7 +6394,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6596,7 +6405,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6614,7 +6423,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6625,7 +6434,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6637,7 +6446,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6648,7 +6457,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6660,7 +6469,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6671,7 +6480,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6689,7 +6498,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6700,7 +6509,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6712,7 +6521,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6723,7 +6532,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6770,7 +6579,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6781,7 +6590,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6798,7 +6607,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6809,7 +6618,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6822,7 +6631,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6833,7 +6642,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6848,7 +6657,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6859,7 +6668,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6878,7 +6687,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6889,7 +6698,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6913,7 +6722,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6924,7 +6733,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6944,7 +6753,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6955,7 +6764,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6977,7 +6786,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6988,7 +6797,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -6998,24 +6807,225 @@
 The shutter curtain may appear to be unevenly colored, but this has no affect on pictures and does not indicate a malfunction.</t>
     </r>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@ タッチパネルについてのご注意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• このカメラのタッチパネルは静電式です。爪でタッチしたり、手袋などをはめたままタッチしたりすると反応しないことがあります。
+• 先のとがった硬い物で押さないでください。
+• タッチパネルを必要以上に強く押したり、こすったりしないでください。
+• 市販の保護フィルムを貼ると反応しないことがあります。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>`@ニコンソフトウェアViewNX-iとCapture NX-Dについて</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ViewNX-iはカメラで撮影した画像の転送や閲覧・調整が、Capture NX-Dは画像の調整やRAW現像ができるニコンのソフトウェアです。下記のホームページでソフトウェアの最新情報や動作環境をご確認の上、ダウンロードしてください。
+http://downloadcenter.nikonimglib.com/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@表示パネルの照明（イルミネーター）について</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+電源スイッチを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>マークの方向に回すと、上面表示パネルや背面表示パネル、ボタンのイルミネーター（照明）が点灯し、電源スイッチを放すと、数秒間点灯し続けます。ただし、シャッターをきるか、もう一度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>マークの方向に回すと消灯します。
+• ボタン照明が点灯すると、暗い場所で操作しやすくなります。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@ LCD Illuminators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Rotating the power switch toward @ activates the backlights for the buttons and control panels,
+making it easier to use the camera in the dark. After the power switch is released, the backlights will remain lit for a few seconds or until the shutter is released or the power switch is rotated toward @ again.</t>
+    </r>
+  </si>
+  <si>
+    <t>WMD</t>
+  </si>
+  <si>
+    <t>MWMD(S, T)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>`@ ViewNX-i and Capture NX-D Software</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Use ViewNX-i to fine-tune photos or to copy pictures to a computer for viewing. ViewNX-i is available for download from the following website:
+http://downloadcenter.nikonimglib.com/
+Use Capture NX-D to fine-tune pictures that have been copied to a computer and to convert NEF (RAW) images to other formats.
+Capture NX-D is available for download from:
+http://downloadcenter.nikonimglib.com/
+You can also visit this website for the latest information on Nikon software, including system requirements.</t>
+    </r>
+  </si>
+  <si>
+    <t>1 Press the shutter-release button halfway.
+At default settings, the camera will focus on the subject in the center focus point. Frame a photo in the viewfinder with the main subject positioned in the center focus point and press the shutter-release button halfway.</t>
+  </si>
+  <si>
+    <t>WMD scaled</t>
+  </si>
+  <si>
+    <t>MMWN(S,T) scaled</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -7024,7 +7034,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -7032,7 +7042,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -7042,7 +7052,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -7050,7 +7060,7 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -7059,9 +7069,24 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -7079,7 +7104,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -7102,13 +7127,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7139,9 +7175,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7156,8 +7201,1379 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>6.1245058243349302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2756890183104099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8346958193602498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8243837169636103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8502554575517998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8201993233000504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1831015008387702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.71422921270596</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.57852943607379</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5715685390880303</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.0980623175412099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.8540807342385603</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.1386467352714602</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5957801048790401</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.07237865475593</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.3284525928283699</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.00339135969491</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.9236177600925997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.0356770744657098</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.8139989697657901</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.7125892784203103</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.08750715451015</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.2416900329052796</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.8907676715325401</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.2163487175861798</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.1930519144989598</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.1995783282864503</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.9920604769502699</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.3291331452656197</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.95465740138882</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.30719689613748</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.2397405219834203</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.5924331331310499</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.8597425290237304</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.9446919826037599</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.5819447822154196</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.5647624756452698</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.7191736252402503</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.0900834238703796</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.4861733407177304</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.0917721733748698</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.50180940170649</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.4881169482741203</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.9146999415199604</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.7262082382381498</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.9360180380440504</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.0988790365949601</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.0259506381670898</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.4203158548341497</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.3750751229717997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.3859178833273402</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.0463273140933502</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.7325266465235298</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.9855057535714504</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.7049297118169502</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5260657934825703</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.1264659312300598</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.5313180268564599</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8778952661839696</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.5796493279200599</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.5163580373727399</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1754583065171698</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.5057273785927601</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.1276205210335197</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.3426101101066203</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.1790722780927796</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.59072501405171</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.1611503029268304</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.5568127402138101</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.8086453475889499</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.2221114608436903</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.5580428493657204</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.8435141028977702</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.0041835413792297</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.5971732654386104</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.1615784216203702</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.1540172574197403</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.2552213653417201</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.9812867364657603</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.3627524463408998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>18.924731999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.36026</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.865490000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.076249000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.780080999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.492647000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.146834999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.908760999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.396461</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.285308000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.860849000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.404475000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.60087</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.94642</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.429308000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26.550189</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26.620446000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.658289</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.353629000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28.695822</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.428080000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26.419626000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30.356202</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.04918</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.8420030000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.9645539999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24.627801999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.899834999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.038537000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25.40305</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20.888335000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.943079999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>23.833718000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.705212</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20.412445000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24.805872999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15.481536</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22.562258</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>33.335037999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>34.263029000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>28.056387000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>17.210324</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20.955704999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15.841352000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25.417010999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20.292304999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>32.657705</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>28.251003000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>30.197799</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>23.233595000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>18.132515000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>24.257856</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>19.555427999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>23.274585999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14.084142</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>18.224582999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>29.213484000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>15.634167</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14.737151000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>26.642520000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>24.221841999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>26.986839</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>21.088169000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>19.323070000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>19.132095</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>27.731680000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16.941222</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>22.187740000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>14.234692000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>28.000893999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>24.064223999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>26.384598</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>22.477512999999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>23.14404</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>21.840568000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>27.040831000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>27.076530999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>20.605124</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>23.054304999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>17.514627999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-45C7-4646-B3DA-E4A19FC31658}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="7395920"/>
+        <c:axId val="2992784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="7395920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2992784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2992784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="7395920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E0E027F3-F4F1-994C-8FCB-9372C25DF37C}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="80" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9318625" cy="6080125"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94C9EFD5-06C8-D447-B10A-65FB933A878A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7477,665 +8893,1643 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="45.625" customWidth="1"/>
-    <col min="3" max="3" width="56.375" customWidth="1"/>
+    <col min="1" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="189" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="224" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="10">
+        <v>6.1245058243349302</v>
+      </c>
+      <c r="D2" s="11">
+        <v>18.924731999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.158223</v>
+      </c>
+      <c r="F2">
+        <v>0.45713500000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="10">
+        <v>7.2756890183104099</v>
+      </c>
+      <c r="D3" s="11">
+        <v>18.36026</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.473327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="192" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C4" s="10">
+        <v>5.8346958193602498</v>
+      </c>
+      <c r="D4" s="11">
+        <v>20.865490000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.19805600000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.40146399999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="224" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10">
+        <v>5.8243837169636103</v>
+      </c>
+      <c r="D5" s="11">
+        <v>21.076249000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.19947300000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.39541799999999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" ht="108" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="6" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="10">
+        <v>5.8502554575517998</v>
+      </c>
+      <c r="D6" s="11">
+        <v>20.780080999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.19591700000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.403914</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="108" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="7" spans="1:6" ht="176" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10">
+        <v>5.8201993233000504</v>
+      </c>
+      <c r="D7" s="11">
+        <v>19.492647000000002</v>
+      </c>
+      <c r="E7">
+        <v>0.200048</v>
+      </c>
+      <c r="F7">
+        <v>0.44084400000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="8" spans="1:6" ht="160" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10">
+        <v>6.1831015008387702</v>
+      </c>
+      <c r="D8" s="11">
+        <v>20.146834999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.15017</v>
+      </c>
+      <c r="F8">
+        <v>0.42207800000000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" ht="81" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="9" spans="1:6" ht="160" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="10">
+        <v>6.71422921270596</v>
+      </c>
+      <c r="D9" s="11">
+        <v>20.908760999999998</v>
+      </c>
+      <c r="E9">
+        <v>7.7169000000000001E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.40022200000000002</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" ht="135" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+    <row r="10" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C10" s="10">
+        <v>6.57852943607379</v>
+      </c>
+      <c r="D10" s="11">
+        <v>13.396461</v>
+      </c>
+      <c r="E10">
+        <v>9.5820000000000002E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.61571600000000004</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" ht="108" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+    <row r="11" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="C11" s="10">
+        <v>6.5715685390880303</v>
+      </c>
+      <c r="D11" s="11">
+        <v>25.285308000000001</v>
+      </c>
+      <c r="E11">
+        <v>9.6777000000000002E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.27467900000000001</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+    <row r="12" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="C12" s="10">
+        <v>6.0980623175412099</v>
+      </c>
+      <c r="D12" s="11">
+        <v>34.860849000000002</v>
+      </c>
+      <c r="E12">
+        <v>0.161858</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+    <row r="13" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="C13" s="10">
+        <v>5.8540807342385603</v>
+      </c>
+      <c r="D13" s="11">
+        <v>26.404475000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.19539200000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.24257500000000001</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+    <row r="14" spans="1:6" ht="256" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="C14" s="10">
+        <v>6.1386467352714602</v>
+      </c>
+      <c r="D14" s="11">
+        <v>24.60087</v>
+      </c>
+      <c r="E14">
+        <v>0.15628</v>
+      </c>
+      <c r="F14">
+        <v>0.29431200000000002</v>
+      </c>
     </row>
-    <row r="12" spans="1:2" ht="324" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+    <row r="15" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="C15" s="10">
+        <v>6.5957801048790401</v>
+      </c>
+      <c r="D15" s="11">
+        <v>15.94642</v>
+      </c>
+      <c r="E15">
+        <v>9.3449000000000004E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.54256899999999997</v>
+      </c>
     </row>
-    <row r="13" spans="1:2" ht="108" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
+    <row r="16" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="C16" s="10">
+        <v>6.07237865475593</v>
+      </c>
+      <c r="D16" s="11">
+        <v>15.429308000000001</v>
+      </c>
+      <c r="E16">
+        <v>0.16538800000000001</v>
+      </c>
+      <c r="F16">
+        <v>0.55740299999999998</v>
+      </c>
     </row>
-    <row r="14" spans="1:2" ht="162" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+    <row r="17" spans="1:6" ht="288" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="C17" s="10">
+        <v>6.3284525928283699</v>
+      </c>
+      <c r="D17" s="11">
+        <v>26.550189</v>
+      </c>
+      <c r="E17">
+        <v>0.130192</v>
+      </c>
+      <c r="F17">
+        <v>0.238395</v>
+      </c>
     </row>
-    <row r="15" spans="1:2" ht="81" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
+    <row r="18" spans="1:6" ht="240" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B18" s="9" t="s">
         <v>29</v>
       </c>
+      <c r="C18" s="10">
+        <v>6.00339135969491</v>
+      </c>
+      <c r="D18" s="11">
+        <v>26.620446000000001</v>
+      </c>
+      <c r="E18">
+        <v>0.17487</v>
+      </c>
+      <c r="F18">
+        <v>0.23638000000000001</v>
+      </c>
     </row>
-    <row r="16" spans="1:2" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
+    <row r="19" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="C19" s="10">
+        <v>5.9236177600925997</v>
+      </c>
+      <c r="D19" s="11">
+        <v>21.658289</v>
+      </c>
+      <c r="E19">
+        <v>0.185834</v>
+      </c>
+      <c r="F19">
+        <v>0.378722</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" ht="202.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+    <row r="20" spans="1:6" ht="192" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="C20" s="10">
+        <v>6.0356770744657098</v>
+      </c>
+      <c r="D20" s="11">
+        <v>22.353629000000002</v>
+      </c>
+      <c r="E20">
+        <v>0.170432</v>
+      </c>
+      <c r="F20">
+        <v>0.35877599999999998</v>
+      </c>
     </row>
-    <row r="18" spans="1:2" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
+    <row r="21" spans="1:6" ht="224" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="C21" s="10">
+        <v>6.8139989697657901</v>
+      </c>
+      <c r="D21" s="11">
+        <v>28.695822</v>
+      </c>
+      <c r="E21">
+        <v>6.3457E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.176847</v>
+      </c>
     </row>
-    <row r="19" spans="1:2" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
+    <row r="22" spans="1:6" ht="192" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="C22" s="10">
+        <v>5.7125892784203103</v>
+      </c>
+      <c r="D22" s="11">
+        <v>22.428080000000001</v>
+      </c>
+      <c r="E22">
+        <v>0.214839</v>
+      </c>
+      <c r="F22">
+        <v>0.35664000000000001</v>
+      </c>
     </row>
-    <row r="20" spans="1:2" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
+    <row r="23" spans="1:6" ht="176" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="C23" s="10">
+        <v>6.08750715451015</v>
+      </c>
+      <c r="D23" s="11">
+        <v>26.419626000000001</v>
+      </c>
+      <c r="E23">
+        <v>0.16330900000000001</v>
+      </c>
+      <c r="F23">
+        <v>0.24213999999999999</v>
+      </c>
     </row>
-    <row r="21" spans="1:2" ht="162" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
+    <row r="24" spans="1:6" ht="304" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="C24" s="10">
+        <v>6.2416900329052796</v>
+      </c>
+      <c r="D24" s="11">
+        <v>30.356202</v>
+      </c>
+      <c r="E24">
+        <v>0.14211699999999999</v>
+      </c>
+      <c r="F24">
+        <v>0.129218</v>
+      </c>
     </row>
-    <row r="22" spans="1:2" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
+    <row r="25" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="C25" s="10">
+        <v>5.8907676715325401</v>
+      </c>
+      <c r="D25" s="11">
+        <v>14.04918</v>
+      </c>
+      <c r="E25">
+        <v>0.19034899999999999</v>
+      </c>
+      <c r="F25">
+        <v>0.596993</v>
+      </c>
     </row>
-    <row r="23" spans="1:2" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
+    <row r="26" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="C26" s="10">
+        <v>6.2163487175861798</v>
+      </c>
+      <c r="D26" s="11">
+        <v>7.8420030000000001</v>
+      </c>
+      <c r="E26">
+        <v>0.14560000000000001</v>
+      </c>
+      <c r="F26">
+        <v>0.77504799999999996</v>
+      </c>
     </row>
-    <row r="24" spans="1:2" ht="175.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
+    <row r="27" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>47</v>
+      <c r="C27" s="10">
+        <v>5.1930519144989598</v>
+      </c>
+      <c r="D27" s="11">
+        <v>7.9645539999999997</v>
+      </c>
+      <c r="E27">
+        <v>0.286246</v>
+      </c>
+      <c r="F27">
+        <v>0.77153300000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
+    <row r="28" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="C28" s="10">
+        <v>6.1995783282864503</v>
+      </c>
+      <c r="D28" s="11">
+        <v>24.627801999999999</v>
+      </c>
+      <c r="E28">
+        <v>0.14790500000000001</v>
+      </c>
+      <c r="F28">
+        <v>0.29354000000000002</v>
+      </c>
     </row>
-    <row r="26" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
+    <row r="29" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>51</v>
       </c>
+      <c r="C29" s="10">
+        <v>5.9920604769502699</v>
+      </c>
+      <c r="D29" s="11">
+        <v>27.899834999999999</v>
+      </c>
+      <c r="E29">
+        <v>0.176427</v>
+      </c>
+      <c r="F29">
+        <v>0.19968</v>
+      </c>
     </row>
-    <row r="27" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+    <row r="30" spans="1:6" ht="208" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>52</v>
+      <c r="C30" s="10">
+        <v>5.3291331452656197</v>
+      </c>
+      <c r="D30" s="11">
+        <v>29.038537000000002</v>
+      </c>
+      <c r="E30">
+        <v>0.267542</v>
+      </c>
+      <c r="F30">
+        <v>0.167016</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
+    <row r="31" spans="1:6" ht="256" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B31" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="C31" s="10">
+        <v>5.95465740138882</v>
+      </c>
+      <c r="D31" s="11">
+        <v>25.40305</v>
+      </c>
+      <c r="E31">
+        <v>0.18156800000000001</v>
+      </c>
+      <c r="F31">
+        <v>0.27130100000000001</v>
+      </c>
     </row>
-    <row r="29" spans="1:2" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
+    <row r="32" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B32" s="7" t="s">
         <v>57</v>
       </c>
+      <c r="C32" s="10">
+        <v>6.30719689613748</v>
+      </c>
+      <c r="D32" s="11">
+        <v>20.888335000000001</v>
+      </c>
+      <c r="E32">
+        <v>0.13311300000000001</v>
+      </c>
+      <c r="F32">
+        <v>0.400808</v>
+      </c>
     </row>
-    <row r="30" spans="1:2" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
+    <row r="33" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>59</v>
       </c>
+      <c r="C33" s="10">
+        <v>6.2397405219834203</v>
+      </c>
+      <c r="D33" s="11">
+        <v>31.943079999999998</v>
+      </c>
+      <c r="E33">
+        <v>0.14238500000000001</v>
+      </c>
+      <c r="F33">
+        <v>8.3697999999999995E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:2" ht="162" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
+    <row r="34" spans="1:6" ht="160" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B34" s="6" t="s">
         <v>61</v>
       </c>
+      <c r="C34" s="10">
+        <v>5.5924331331310499</v>
+      </c>
+      <c r="D34" s="11">
+        <v>23.833718000000001</v>
+      </c>
+      <c r="E34">
+        <v>0.231353</v>
+      </c>
+      <c r="F34">
+        <v>0.31631799999999999</v>
+      </c>
     </row>
-    <row r="32" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
+    <row r="35" spans="1:6" ht="192" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>63</v>
       </c>
+      <c r="C35" s="10">
+        <v>5.8597425290237304</v>
+      </c>
+      <c r="D35" s="11">
+        <v>17.705212</v>
+      </c>
+      <c r="E35">
+        <v>0.19461300000000001</v>
+      </c>
+      <c r="F35">
+        <v>0.492118</v>
+      </c>
     </row>
-    <row r="33" spans="1:2" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="6" t="s">
+    <row r="36" spans="1:6" ht="380" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>65</v>
+      <c r="C36" s="10">
+        <v>5.9446919826037599</v>
+      </c>
+      <c r="D36" s="11">
+        <v>20.412445000000002</v>
+      </c>
+      <c r="E36">
+        <v>0.18293799999999999</v>
+      </c>
+      <c r="F36">
+        <v>0.41445900000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="108" x14ac:dyDescent="0.15">
-      <c r="A34" s="6" t="s">
+    <row r="37" spans="1:6" ht="272" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>67</v>
       </c>
+      <c r="C37" s="10">
+        <v>5.5819447822154196</v>
+      </c>
+      <c r="D37" s="11">
+        <v>24.805872999999998</v>
+      </c>
+      <c r="E37">
+        <v>0.232795</v>
+      </c>
+      <c r="F37">
+        <v>0.28843200000000002</v>
+      </c>
     </row>
-    <row r="35" spans="1:2" ht="108" x14ac:dyDescent="0.15">
-      <c r="A35" s="6" t="s">
+    <row r="38" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B38" s="6" t="s">
         <v>69</v>
       </c>
+      <c r="C38" s="10">
+        <v>6.5647624756452698</v>
+      </c>
+      <c r="D38" s="11">
+        <v>15.481536</v>
+      </c>
+      <c r="E38">
+        <v>9.7712999999999994E-2</v>
+      </c>
+      <c r="F38">
+        <v>0.55590499999999998</v>
+      </c>
     </row>
-    <row r="36" spans="1:2" ht="202.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="7" t="s">
+    <row r="39" spans="1:6" ht="304" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>70</v>
+      <c r="C39" s="10">
+        <v>6.7191736252402503</v>
+      </c>
+      <c r="D39" s="11">
+        <v>22.562258</v>
+      </c>
+      <c r="E39">
+        <v>7.6490000000000002E-2</v>
+      </c>
+      <c r="F39">
+        <v>0.35279100000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="189" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
+    <row r="40" spans="1:6" ht="224" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B40" s="6" t="s">
         <v>73</v>
       </c>
+      <c r="C40" s="10">
+        <v>6.0900834238703796</v>
+      </c>
+      <c r="D40" s="11">
+        <v>33.335037999999997</v>
+      </c>
+      <c r="E40">
+        <v>0.16295399999999999</v>
+      </c>
+      <c r="F40">
+        <v>4.3769000000000002E-2</v>
+      </c>
     </row>
-    <row r="38" spans="1:2" ht="81" x14ac:dyDescent="0.15">
-      <c r="A38" s="6" t="s">
+    <row r="41" spans="1:6" ht="224" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>75</v>
       </c>
+      <c r="C41" s="10">
+        <v>5.4861733407177304</v>
+      </c>
+      <c r="D41" s="11">
+        <v>34.263029000000003</v>
+      </c>
+      <c r="E41">
+        <v>0.24595800000000001</v>
+      </c>
+      <c r="F41">
+        <v>1.7149000000000001E-2</v>
+      </c>
     </row>
-    <row r="39" spans="1:2" ht="162" x14ac:dyDescent="0.15">
-      <c r="A39" s="6" t="s">
+    <row r="42" spans="1:6" ht="224" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B42" s="6" t="s">
         <v>77</v>
       </c>
+      <c r="C42" s="10">
+        <v>6.0917721733748698</v>
+      </c>
+      <c r="D42" s="11">
+        <v>28.056387000000001</v>
+      </c>
+      <c r="E42">
+        <v>0.16272200000000001</v>
+      </c>
+      <c r="F42">
+        <v>0.195189</v>
+      </c>
     </row>
-    <row r="40" spans="1:2" ht="189" x14ac:dyDescent="0.15">
-      <c r="A40" s="6" t="s">
+    <row r="43" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B43" s="7" t="s">
         <v>79</v>
       </c>
+      <c r="C43" s="10">
+        <v>6.50180940170649</v>
+      </c>
+      <c r="D43" s="11">
+        <v>17.210324</v>
+      </c>
+      <c r="E43">
+        <v>0.106365</v>
+      </c>
+      <c r="F43">
+        <v>0.50631400000000004</v>
+      </c>
     </row>
-    <row r="41" spans="1:2" ht="135" x14ac:dyDescent="0.15">
-      <c r="A41" s="5" t="s">
+    <row r="44" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B44" s="7" t="s">
         <v>81</v>
       </c>
+      <c r="C44" s="10">
+        <v>6.4881169482741203</v>
+      </c>
+      <c r="D44" s="11">
+        <v>20.955704999999998</v>
+      </c>
+      <c r="E44">
+        <v>0.108247</v>
+      </c>
+      <c r="F44">
+        <v>0.39887600000000001</v>
+      </c>
     </row>
-    <row r="42" spans="1:2" ht="135" x14ac:dyDescent="0.15">
-      <c r="A42" s="6" t="s">
+    <row r="45" spans="1:6" ht="176" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>83</v>
       </c>
+      <c r="C45" s="10">
+        <v>5.9146999415199604</v>
+      </c>
+      <c r="D45" s="11">
+        <v>15.841352000000001</v>
+      </c>
+      <c r="E45">
+        <v>0.18706</v>
+      </c>
+      <c r="F45">
+        <v>0.54558300000000004</v>
+      </c>
     </row>
-    <row r="43" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="7" t="s">
+    <row r="46" spans="1:6" ht="224" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B46" s="7" t="s">
         <v>85</v>
       </c>
+      <c r="C46" s="10">
+        <v>5.7262082382381498</v>
+      </c>
+      <c r="D46" s="11">
+        <v>25.417010999999999</v>
+      </c>
+      <c r="E46">
+        <v>0.21296699999999999</v>
+      </c>
+      <c r="F46">
+        <v>0.270901</v>
+      </c>
     </row>
-    <row r="44" spans="1:2" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="7" t="s">
+    <row r="47" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B47" s="7" t="s">
         <v>87</v>
       </c>
+      <c r="C47" s="10">
+        <v>5.9360180380440504</v>
+      </c>
+      <c r="D47" s="11">
+        <v>20.292304999999999</v>
+      </c>
+      <c r="E47">
+        <v>0.18412999999999999</v>
+      </c>
+      <c r="F47">
+        <v>0.417906</v>
+      </c>
     </row>
-    <row r="45" spans="1:2" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="5" t="s">
+    <row r="48" spans="1:6" ht="208" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B48" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="C48" s="10">
+        <v>6.0988790365949601</v>
+      </c>
+      <c r="D48" s="11">
+        <v>32.657705</v>
+      </c>
+      <c r="E48">
+        <v>0.161746</v>
+      </c>
+      <c r="F48">
+        <v>6.3198000000000004E-2</v>
+      </c>
     </row>
-    <row r="46" spans="1:2" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="5" t="s">
+    <row r="49" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B49" s="5" t="s">
         <v>91</v>
       </c>
+      <c r="C49" s="10">
+        <v>6.0259506381670898</v>
+      </c>
+      <c r="D49" s="11">
+        <v>28.251003000000001</v>
+      </c>
+      <c r="E49">
+        <v>0.17176900000000001</v>
+      </c>
+      <c r="F49">
+        <v>0.189607</v>
+      </c>
     </row>
-    <row r="47" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
+    <row r="50" spans="1:6" ht="304" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>93</v>
       </c>
+      <c r="C50" s="10">
+        <v>6.4203158548341497</v>
+      </c>
+      <c r="D50" s="11">
+        <v>30.197799</v>
+      </c>
+      <c r="E50">
+        <v>0.117566</v>
+      </c>
+      <c r="F50">
+        <v>0.13376199999999999</v>
+      </c>
     </row>
-    <row r="48" spans="1:2" ht="162" x14ac:dyDescent="0.15">
-      <c r="A48" s="5" t="s">
+    <row r="51" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B51" s="5" t="s">
         <v>95</v>
       </c>
+      <c r="C51" s="10">
+        <v>6.3750751229717997</v>
+      </c>
+      <c r="D51" s="11">
+        <v>23.233595000000001</v>
+      </c>
+      <c r="E51">
+        <v>0.12378400000000001</v>
+      </c>
+      <c r="F51">
+        <v>0.33353300000000002</v>
+      </c>
     </row>
-    <row r="49" spans="1:2" ht="81" x14ac:dyDescent="0.15">
-      <c r="A49" s="5" t="s">
+    <row r="52" spans="1:6" ht="160" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B52" s="6" t="s">
         <v>97</v>
       </c>
+      <c r="C52" s="10">
+        <v>6.3859178833273402</v>
+      </c>
+      <c r="D52" s="11">
+        <v>18.132515000000001</v>
+      </c>
+      <c r="E52">
+        <v>0.122294</v>
+      </c>
+      <c r="F52">
+        <v>0.47986000000000001</v>
+      </c>
     </row>
-    <row r="50" spans="1:2" ht="175.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="6" t="s">
+    <row r="53" spans="1:6" ht="160" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>99</v>
       </c>
+      <c r="C53" s="10">
+        <v>6.0463273140933502</v>
+      </c>
+      <c r="D53" s="11">
+        <v>24.257856</v>
+      </c>
+      <c r="E53">
+        <v>0.16896800000000001</v>
+      </c>
+      <c r="F53">
+        <v>0.30415199999999998</v>
+      </c>
     </row>
-    <row r="51" spans="1:2" ht="81" x14ac:dyDescent="0.15">
-      <c r="A51" s="5" t="s">
+    <row r="54" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B54" s="7" t="s">
         <v>101</v>
       </c>
+      <c r="C54" s="10">
+        <v>5.7325266465235298</v>
+      </c>
+      <c r="D54" s="11">
+        <v>19.555427999999999</v>
+      </c>
+      <c r="E54">
+        <v>0.21209800000000001</v>
+      </c>
+      <c r="F54">
+        <v>0.43904300000000002</v>
+      </c>
     </row>
-    <row r="52" spans="1:2" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="6" t="s">
+    <row r="55" spans="1:6" ht="160" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>103</v>
       </c>
+      <c r="C55" s="10">
+        <v>5.9855057535714504</v>
+      </c>
+      <c r="D55" s="11">
+        <v>23.274585999999999</v>
+      </c>
+      <c r="E55">
+        <v>0.17732800000000001</v>
+      </c>
+      <c r="F55">
+        <v>0.33235700000000001</v>
+      </c>
     </row>
-    <row r="53" spans="1:2" ht="108" x14ac:dyDescent="0.15">
-      <c r="A53" s="5" t="s">
+    <row r="56" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B56" s="5" t="s">
         <v>105</v>
       </c>
+      <c r="C56" s="10">
+        <v>6.7049297118169502</v>
+      </c>
+      <c r="D56" s="11">
+        <v>14.084142</v>
+      </c>
+      <c r="E56">
+        <v>7.8447000000000003E-2</v>
+      </c>
+      <c r="F56">
+        <v>0.59599000000000002</v>
+      </c>
     </row>
-    <row r="54" spans="1:2" ht="81" x14ac:dyDescent="0.15">
-      <c r="A54" s="7" t="s">
+    <row r="57" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B57" s="5" t="s">
         <v>107</v>
       </c>
+      <c r="C57" s="10">
+        <v>5.5260657934825703</v>
+      </c>
+      <c r="D57" s="11">
+        <v>18.224582999999999</v>
+      </c>
+      <c r="E57">
+        <v>0.24047499999999999</v>
+      </c>
+      <c r="F57">
+        <v>0.477219</v>
+      </c>
     </row>
-    <row r="55" spans="1:2" ht="108" x14ac:dyDescent="0.15">
-      <c r="A55" s="5" t="s">
+    <row r="58" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B58" s="5" t="s">
         <v>109</v>
       </c>
+      <c r="C58" s="10">
+        <v>6.1264659312300598</v>
+      </c>
+      <c r="D58" s="11">
+        <v>29.213484000000001</v>
+      </c>
+      <c r="E58">
+        <v>0.15795400000000001</v>
+      </c>
+      <c r="F58">
+        <v>0.161997</v>
+      </c>
     </row>
-    <row r="56" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="5" t="s">
+    <row r="59" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B59" s="5" t="s">
         <v>111</v>
       </c>
+      <c r="C59" s="10">
+        <v>6.5313180268564599</v>
+      </c>
+      <c r="D59" s="11">
+        <v>15.634167</v>
+      </c>
+      <c r="E59">
+        <v>0.102309</v>
+      </c>
+      <c r="F59">
+        <v>0.55152599999999996</v>
+      </c>
     </row>
-    <row r="57" spans="1:2" ht="54" x14ac:dyDescent="0.15">
-      <c r="A57" s="5" t="s">
+    <row r="60" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B60" s="5" t="s">
         <v>113</v>
       </c>
+      <c r="C60" s="10">
+        <v>5.8778952661839696</v>
+      </c>
+      <c r="D60" s="11">
+        <v>14.737151000000001</v>
+      </c>
+      <c r="E60">
+        <v>0.19211800000000001</v>
+      </c>
+      <c r="F60">
+        <v>0.57725800000000005</v>
+      </c>
     </row>
-    <row r="58" spans="1:2" ht="108" x14ac:dyDescent="0.15">
-      <c r="A58" s="5" t="s">
+    <row r="61" spans="1:6" ht="176" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B61" s="5" t="s">
         <v>115</v>
       </c>
+      <c r="C61" s="10">
+        <v>6.5796493279200599</v>
+      </c>
+      <c r="D61" s="11">
+        <v>26.642520000000001</v>
+      </c>
+      <c r="E61">
+        <v>9.5666000000000001E-2</v>
+      </c>
+      <c r="F61">
+        <v>0.23574700000000001</v>
+      </c>
     </row>
-    <row r="59" spans="1:2" ht="54" x14ac:dyDescent="0.15">
-      <c r="A59" s="5" t="s">
+    <row r="62" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>117</v>
+      <c r="C62" s="10">
+        <v>6.5163580373727399</v>
+      </c>
+      <c r="D62" s="11">
+        <v>24.221841999999999</v>
+      </c>
+      <c r="E62">
+        <v>0.104366</v>
+      </c>
+      <c r="F62">
+        <v>0.30518499999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="54" x14ac:dyDescent="0.15">
-      <c r="A60" s="5" t="s">
+    <row r="63" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B63" s="5" t="s">
         <v>119</v>
       </c>
+      <c r="C63" s="10">
+        <v>6.1754583065171698</v>
+      </c>
+      <c r="D63" s="11">
+        <v>26.986839</v>
+      </c>
+      <c r="E63">
+        <v>0.15121999999999999</v>
+      </c>
+      <c r="F63">
+        <v>0.22586999999999999</v>
+      </c>
     </row>
-    <row r="61" spans="1:2" ht="135" x14ac:dyDescent="0.15">
-      <c r="A61" s="5" t="s">
+    <row r="64" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B64" s="5" t="s">
         <v>121</v>
       </c>
+      <c r="C64" s="10">
+        <v>6.5057273785927601</v>
+      </c>
+      <c r="D64" s="11">
+        <v>21.088169000000001</v>
+      </c>
+      <c r="E64">
+        <v>0.105827</v>
+      </c>
+      <c r="F64">
+        <v>0.39507599999999998</v>
+      </c>
     </row>
-    <row r="62" spans="1:2" ht="108" x14ac:dyDescent="0.15">
-      <c r="A62" s="5" t="s">
+    <row r="65" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>122</v>
+      <c r="C65" s="10">
+        <v>6.1276205210335197</v>
+      </c>
+      <c r="D65" s="11">
+        <v>19.323070000000001</v>
+      </c>
+      <c r="E65">
+        <v>0.15779499999999999</v>
+      </c>
+      <c r="F65">
+        <v>0.44570900000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="81" x14ac:dyDescent="0.15">
-      <c r="A63" s="5" t="s">
+    <row r="66" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B66" s="5" t="s">
         <v>125</v>
       </c>
+      <c r="C66" s="10">
+        <v>6.3426101101066203</v>
+      </c>
+      <c r="D66" s="11">
+        <v>19.132095</v>
+      </c>
+      <c r="E66">
+        <v>0.128246</v>
+      </c>
+      <c r="F66">
+        <v>0.451187</v>
+      </c>
     </row>
-    <row r="64" spans="1:2" ht="54" x14ac:dyDescent="0.15">
-      <c r="A64" s="5" t="s">
+    <row r="67" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B67" s="5" t="s">
         <v>127</v>
       </c>
+      <c r="C67" s="10">
+        <v>6.1790722780927796</v>
+      </c>
+      <c r="D67" s="11">
+        <v>27.731680000000001</v>
+      </c>
+      <c r="E67">
+        <v>0.150723</v>
+      </c>
+      <c r="F67">
+        <v>0.20450399999999999</v>
+      </c>
     </row>
-    <row r="65" spans="1:2" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="5" t="s">
+    <row r="68" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B68" s="6" t="s">
         <v>129</v>
       </c>
+      <c r="C68" s="10">
+        <v>6.59072501405171</v>
+      </c>
+      <c r="D68" s="11">
+        <v>16.941222</v>
+      </c>
+      <c r="E68">
+        <v>9.4144000000000005E-2</v>
+      </c>
+      <c r="F68">
+        <v>0.51403299999999996</v>
+      </c>
     </row>
-    <row r="66" spans="1:2" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="5" t="s">
+    <row r="69" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B69" s="5" t="s">
         <v>131</v>
       </c>
+      <c r="C69" s="10">
+        <v>6.1611503029268304</v>
+      </c>
+      <c r="D69" s="11">
+        <v>22.187740000000002</v>
+      </c>
+      <c r="E69">
+        <v>0.15318699999999999</v>
+      </c>
+      <c r="F69">
+        <v>0.36353400000000002</v>
+      </c>
     </row>
-    <row r="67" spans="1:2" ht="108" x14ac:dyDescent="0.15">
-      <c r="A67" s="5" t="s">
+    <row r="70" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B70" s="5" t="s">
         <v>133</v>
       </c>
+      <c r="C70" s="10">
+        <v>6.5568127402138101</v>
+      </c>
+      <c r="D70" s="11">
+        <v>14.234692000000001</v>
+      </c>
+      <c r="E70">
+        <v>9.8805000000000004E-2</v>
+      </c>
+      <c r="F70">
+        <v>0.59167099999999995</v>
+      </c>
     </row>
-    <row r="68" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A68" s="6" t="s">
+    <row r="71" spans="1:6" ht="256" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B71" s="7" t="s">
         <v>135</v>
       </c>
+      <c r="C71" s="10">
+        <v>5.8086453475889499</v>
+      </c>
+      <c r="D71" s="11">
+        <v>28.000893999999999</v>
+      </c>
+      <c r="E71">
+        <v>0.20163600000000001</v>
+      </c>
+      <c r="F71">
+        <v>0.19678100000000001</v>
+      </c>
     </row>
-    <row r="69" spans="1:2" ht="81" x14ac:dyDescent="0.15">
-      <c r="A69" s="5" t="s">
+    <row r="72" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B72" s="7" t="s">
         <v>137</v>
       </c>
+      <c r="C72" s="10">
+        <v>6.2221114608436903</v>
+      </c>
+      <c r="D72" s="11">
+        <v>24.064223999999999</v>
+      </c>
+      <c r="E72">
+        <v>0.14480799999999999</v>
+      </c>
+      <c r="F72">
+        <v>0.30970599999999998</v>
+      </c>
     </row>
-    <row r="70" spans="1:2" ht="81" x14ac:dyDescent="0.15">
-      <c r="A70" s="5" t="s">
+    <row r="73" spans="1:6" ht="176" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B73" s="7" t="s">
         <v>139</v>
       </c>
+      <c r="C73" s="10">
+        <v>5.5580428493657204</v>
+      </c>
+      <c r="D73" s="11">
+        <v>26.384598</v>
+      </c>
+      <c r="E73">
+        <v>0.23608000000000001</v>
+      </c>
+      <c r="F73">
+        <v>0.243145</v>
+      </c>
     </row>
-    <row r="71" spans="1:2" ht="162" x14ac:dyDescent="0.15">
-      <c r="A71" s="5" t="s">
+    <row r="74" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B74" s="5" t="s">
         <v>141</v>
       </c>
+      <c r="C74" s="10">
+        <v>5.8435141028977702</v>
+      </c>
+      <c r="D74" s="11">
+        <v>22.477512999999998</v>
+      </c>
+      <c r="E74">
+        <v>0.19684399999999999</v>
+      </c>
+      <c r="F74">
+        <v>0.35522199999999998</v>
+      </c>
     </row>
-    <row r="72" spans="1:2" ht="108" x14ac:dyDescent="0.15">
-      <c r="A72" s="5" t="s">
+    <row r="75" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B75" s="5" t="s">
         <v>143</v>
       </c>
+      <c r="C75" s="10">
+        <v>6.0041835413792297</v>
+      </c>
+      <c r="D75" s="11">
+        <v>23.14404</v>
+      </c>
+      <c r="E75">
+        <v>0.174761</v>
+      </c>
+      <c r="F75">
+        <v>0.33610200000000001</v>
+      </c>
     </row>
-    <row r="73" spans="1:2" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="5" t="s">
+    <row r="76" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B76" s="5" t="s">
         <v>145</v>
       </c>
+      <c r="C76" s="10">
+        <v>6.5971732654386104</v>
+      </c>
+      <c r="D76" s="11">
+        <v>21.840568000000001</v>
+      </c>
+      <c r="E76">
+        <v>9.3257999999999994E-2</v>
+      </c>
+      <c r="F76">
+        <v>0.37349300000000002</v>
+      </c>
     </row>
-    <row r="74" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A74" s="5" t="s">
+    <row r="77" spans="1:6" ht="208" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B77" s="7" t="s">
         <v>147</v>
       </c>
+      <c r="C77" s="10">
+        <v>5.1615784216203702</v>
+      </c>
+      <c r="D77" s="11">
+        <v>27.040831000000001</v>
+      </c>
+      <c r="E77">
+        <v>0.290572</v>
+      </c>
+      <c r="F77">
+        <v>0.22432099999999999</v>
+      </c>
     </row>
-    <row r="75" spans="1:2" ht="81" x14ac:dyDescent="0.15">
-      <c r="A75" s="5" t="s">
+    <row r="78" spans="1:6" ht="256" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B78" s="6" t="s">
         <v>149</v>
       </c>
+      <c r="C78" s="10">
+        <v>6.1540172574197403</v>
+      </c>
+      <c r="D78" s="11">
+        <v>27.076530999999999</v>
+      </c>
+      <c r="E78">
+        <v>0.154167</v>
+      </c>
+      <c r="F78">
+        <v>0.223297</v>
+      </c>
     </row>
-    <row r="76" spans="1:2" ht="54" x14ac:dyDescent="0.15">
-      <c r="A76" s="5" t="s">
+    <row r="79" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B79" s="7" t="s">
         <v>151</v>
       </c>
+      <c r="C79" s="10">
+        <v>6.2552213653417201</v>
+      </c>
+      <c r="D79" s="11">
+        <v>20.605124</v>
+      </c>
+      <c r="E79">
+        <v>0.14025699999999999</v>
+      </c>
+      <c r="F79">
+        <v>0.40893200000000002</v>
+      </c>
     </row>
-    <row r="77" spans="1:2" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A77" s="7" t="s">
+    <row r="80" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B80" s="7" t="s">
         <v>153</v>
       </c>
+      <c r="C80" s="10">
+        <v>5.9812867364657603</v>
+      </c>
+      <c r="D80" s="11">
+        <v>23.054304999999999</v>
+      </c>
+      <c r="E80">
+        <v>0.17790800000000001</v>
+      </c>
+      <c r="F80">
+        <v>0.33867599999999998</v>
+      </c>
     </row>
-    <row r="78" spans="1:2" ht="175.5" x14ac:dyDescent="0.15">
-      <c r="A78" s="6" t="s">
+    <row r="81" spans="1:6" ht="160" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B81" s="7" t="s">
         <v>155</v>
       </c>
+      <c r="C81" s="10">
+        <v>6.3627524463408998</v>
+      </c>
+      <c r="D81" s="11">
+        <v>17.514627999999998</v>
+      </c>
+      <c r="E81">
+        <v>0.12547800000000001</v>
+      </c>
+      <c r="F81">
+        <v>0.497585</v>
+      </c>
     </row>
-    <row r="79" spans="1:2" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A79" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="81" x14ac:dyDescent="0.15">
-      <c r="A80" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A81" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>161</v>
-      </c>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D82" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -8150,7 +10544,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8163,7 +10557,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
